--- a/biology/Zoologie/Bécasseau_maubèche/Bécasseau_maubèche.xlsx
+++ b/biology/Zoologie/Bécasseau_maubèche/Bécasseau_maubèche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_maub%C3%A8che</t>
+          <t>Bécasseau_maubèche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calidris canutus
 Le Bécasseau maubèche (Calidris canutus) est une espèce de gros oiseaux limicoles de la famille des Scolopacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_maub%C3%A8che</t>
+          <t>Bécasseau_maubèche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bécasseau mesure 23 à 25 cm. Il possède un bec court, droit et noir plus ou moins de la longueur de sa tête. Ses parties inférieures sont rousses en plumage nuptial tandis que son plumage est gris en hiver. C'est une espèce d'apparence trapue, corpulente et courte sur patte. Ses pattes sont de couleur verdâtre.
 En plumage nuptial, cet oiseau a la face et les parties inférieures roux orangé. Sa calotte est très striée. Partiellement rousses, les plumes du manteau, les scapulaires et les tertiaires présentent un centre noirâtre et une extrémité blanchâtre. Les couvertures alaires sont grises avec un liseré plus pâle.
 En plumage internuptial, cette espèce a les parties supérieures gris pâle avec de fines marges blanches et de minces traits sombres sur les rachis des plumes. Les parties inférieures sont blanches à l'exception de chevrons indistincts sur les flancs.
 Le juvénile présente un aspect légèrement écailleux donné par la fine ligne sombre subterminale et la nette marge blanche des plumes des parties supérieures. La poitrine chamois rosé s'orne de fines stries qui évoluent en chevrons sur les flancs.
-Au vol
-Son envergure est comprise entre 47 et 53 cm. Longues ailes finement marquées par une étroite barre alaire qui, en vol, modifient la perception de sa corpulence. Possède un croupion gris clair finement marqué.
-Voix
-Son cri de contact au sein d'un groupe est un nout doux; en vol émet une série de notes doubles uètt-uètt brèves et légèrement nasillardes. Surpris, il s'envole accompagné d'un brusque kikkik.
 </t>
         </is>
       </c>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_maub%C3%A8che</t>
+          <t>Bécasseau_maubèche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +557,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Au vol</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son envergure est comprise entre 47 et 53 cm. Longues ailes finement marquées par une étroite barre alaire qui, en vol, modifient la perception de sa corpulence. Possède un croupion gris clair finement marqué.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bécasseau_maubèche</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9casseau_maub%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Voix</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son cri de contact au sein d'un groupe est un nout doux; en vol émet une série de notes doubles uètt-uètt brèves et légèrement nasillardes. Surpris, il s'envole accompagné d'un brusque kikkik.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bécasseau_maubèche</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9casseau_maub%C3%A8che</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Alimentation et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bécasseau maubèche s'alimente principalement d'invertébrés d'eau salée et d'eau douce (insectes aquatiques, petits mollusques, vers). Recherche son alimentation effectuant des mouvements latéraux et verticaux de son bec dans la vase.
 Espèce très grégaire, pouvant former des bandes de plusieurs milliers d'exemplaires. Dérangés, ils exécutent des manœuvres aériennes parfaitement synchronisées et spectaculaires. 
@@ -559,31 +645,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B%C3%A9casseau_maub%C3%A8che</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bécasseau_maubèche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/B%C3%A9casseau_maub%C3%A8che</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, cette espèce est constituée des six sous-espèces suivantes :
 Calidris canutus canutus  (Linnaeus) 1758
@@ -596,37 +684,39 @@
 Calidris canutus roselaari  Tomkovich 1990
 nicheuse sur l'île Wrangel et dans le nord-ouest de l'Alaska, hivernante sur les côtes du golfe du Mexique ;
 Calidris canutus rufa  (A. Wilson) 1813
-au plumage nuptial roux plus pâle dessous, aux scapulaires jaune orangé et au bas du ventre blanc, nicheuse dans le nord du Canada et hivernante dans le sud de l'Amérique du Sud. En danger d'extinction, cette sous-espèce se nourrit essentiellement d’œufs de Limules lors de son passage sur la côte Ouest Nord-Américaine[1] ;
+au plumage nuptial roux plus pâle dessous, aux scapulaires jaune orangé et au bas du ventre blanc, nicheuse dans le nord du Canada et hivernante dans le sud de l'Amérique du Sud. En danger d'extinction, cette sous-espèce se nourrit essentiellement d’œufs de Limules lors de son passage sur la côte Ouest Nord-Américaine ;
 Cependant, la coloration et la structure varient au sein de chaque sous-espèce, notamment en raison d'un léger dimorphisme sexuel.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B%C3%A9casseau_maub%C3%A8che</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bécasseau_maubèche</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/B%C3%A9casseau_maub%C3%A8che</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bécasseau maubèche se reproduit dans la toundra humide. En migration et en hivernage, il fréquente essentiellement les vasières littorales.
 </t>
